--- a/output/tables/table_appendix_tev_crops_livestock_aquaculture_2006-2018.xlsx
+++ b/output/tables/table_appendix_tev_crops_livestock_aquaculture_2006-2018.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">9,175M</t>
   </si>
   <si>
-    <t xml:space="preserve">$3,091B</t>
+    <t xml:space="preserve">$3,092B</t>
   </si>
   <si>
     <t xml:space="preserve">1,322M</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">9,145M</t>
   </si>
   <si>
-    <t xml:space="preserve">$3,018B</t>
+    <t xml:space="preserve">$3,019B</t>
   </si>
   <si>
     <t xml:space="preserve">1,294M</t>
@@ -80,7 +80,7 @@
     <t xml:space="preserve">8,936M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,887B</t>
+    <t xml:space="preserve">$2,889B</t>
   </si>
   <si>
     <t xml:space="preserve">1,261M</t>
@@ -98,7 +98,7 @@
     <t xml:space="preserve">8,792M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,841B</t>
+    <t xml:space="preserve">$2,845B</t>
   </si>
   <si>
     <t xml:space="preserve">1,246M</t>
@@ -116,7 +116,7 @@
     <t xml:space="preserve">8,750M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,802B</t>
+    <t xml:space="preserve">$2,805B</t>
   </si>
   <si>
     <t xml:space="preserve">1,230M</t>
@@ -134,7 +134,7 @@
     <t xml:space="preserve">8,593M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,760B</t>
+    <t xml:space="preserve">$2,763B</t>
   </si>
   <si>
     <t xml:space="preserve">1,195M</t>
@@ -152,7 +152,7 @@
     <t xml:space="preserve">8,192M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,738B</t>
+    <t xml:space="preserve">$2,740B</t>
   </si>
   <si>
     <t xml:space="preserve">1,168M</t>
@@ -170,7 +170,7 @@
     <t xml:space="preserve">8,160M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,696B</t>
+    <t xml:space="preserve">$2,699B</t>
   </si>
   <si>
     <t xml:space="preserve">1,144M</t>
@@ -188,7 +188,7 @@
     <t xml:space="preserve">7,722M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,676B</t>
+    <t xml:space="preserve">$2,679B</t>
   </si>
   <si>
     <t xml:space="preserve">1,120M</t>
@@ -206,7 +206,7 @@
     <t xml:space="preserve">7,571M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,652B</t>
+    <t xml:space="preserve">$2,654B</t>
   </si>
   <si>
     <t xml:space="preserve">1,095M</t>
@@ -224,7 +224,7 @@
     <t xml:space="preserve">7,606M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,609B</t>
+    <t xml:space="preserve">$2,620B</t>
   </si>
   <si>
     <t xml:space="preserve">1,080M</t>
@@ -242,7 +242,7 @@
     <t xml:space="preserve">7,219M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,539B</t>
+    <t xml:space="preserve">$2,550B</t>
   </si>
   <si>
     <t xml:space="preserve">1,054M</t>
@@ -260,7 +260,7 @@
     <t xml:space="preserve">6,907M</t>
   </si>
   <si>
-    <t xml:space="preserve">$2,498B</t>
+    <t xml:space="preserve">$2,510B</t>
   </si>
   <si>
     <t xml:space="preserve">1,028M</t>
